--- a/rotas.xlsx
+++ b/rotas.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1202">
   <si>
     <t>Nome</t>
   </si>
@@ -3398,6 +3398,225 @@
   </si>
   <si>
     <t>D-39</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DA COSTA XAVIER</t>
+  </si>
+  <si>
+    <t>SIL3D65</t>
+  </si>
+  <si>
+    <t>ANA ALICE VASCONCELOS DE JESUS</t>
+  </si>
+  <si>
+    <t>JVY6337</t>
+  </si>
+  <si>
+    <t>ANTONIO RONILSON NOGUEIRA REIS</t>
+  </si>
+  <si>
+    <t>QDU5B51</t>
+  </si>
+  <si>
+    <t>ARISON QUADROS DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>TCK6C61</t>
+  </si>
+  <si>
+    <t>BRENA DE JESUS VIEIRA</t>
+  </si>
+  <si>
+    <t>QEU2149</t>
+  </si>
+  <si>
+    <t>CARLA ROBERTA RODRIGUES SEPEDA</t>
+  </si>
+  <si>
+    <t>OFL8E96</t>
+  </si>
+  <si>
+    <t>CARLOS DANIELSON SANTOS DE ARAUJO</t>
+  </si>
+  <si>
+    <t>QEO7216</t>
+  </si>
+  <si>
+    <t>CARLOS MALCHER TEIXEIRA</t>
+  </si>
+  <si>
+    <t>QZS5C57</t>
+  </si>
+  <si>
+    <t>DIEGO SALDANHA CORREIA</t>
+  </si>
+  <si>
+    <t>QVD4083</t>
+  </si>
+  <si>
+    <t>DOUGLAS BARROSO DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>PBG7371</t>
+  </si>
+  <si>
+    <t>ELAINE DO NASCIMENTO MACIEL</t>
+  </si>
+  <si>
+    <t>QVH4455</t>
+  </si>
+  <si>
+    <t>ELIELSON DA COSTA SOARES</t>
+  </si>
+  <si>
+    <t>QVT2H80</t>
+  </si>
+  <si>
+    <t>EVERTON BARRETO BARBOSA</t>
+  </si>
+  <si>
+    <t>NTA7E54</t>
+  </si>
+  <si>
+    <t>FABIO AUGUSTO SILVA</t>
+  </si>
+  <si>
+    <t>QDK8792</t>
+  </si>
+  <si>
+    <t>FABIO XAVIER PORFIRIO</t>
+  </si>
+  <si>
+    <t>Nes5b81</t>
+  </si>
+  <si>
+    <t>FAGNER KAIK SAMPAIO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Jvw2867</t>
+  </si>
+  <si>
+    <t>GLESIELI CRISTINA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>QVJ8E67</t>
+  </si>
+  <si>
+    <t>GUSTAVO TEIXEIRA PEREIRA</t>
+  </si>
+  <si>
+    <t>QVF4G65</t>
+  </si>
+  <si>
+    <t>HELIO FERNANDO DE LIMA MELO</t>
+  </si>
+  <si>
+    <t>NSJ3B34</t>
+  </si>
+  <si>
+    <t>IVANIO SOARES MODESTO</t>
+  </si>
+  <si>
+    <t>TDZ2E11</t>
+  </si>
+  <si>
+    <t>JANDRESSON GAIA DA SILVA</t>
+  </si>
+  <si>
+    <t>OLL2B94</t>
+  </si>
+  <si>
+    <t>JOAO PAULO MORAES ADRIANO</t>
+  </si>
+  <si>
+    <t>QDU2F82</t>
+  </si>
+  <si>
+    <t>JOSÉ RICARDO SOARES DOS SANTOS JUNIOR</t>
+  </si>
+  <si>
+    <t>QUC2D96</t>
+  </si>
+  <si>
+    <t>LENDREL MACIEL DE MELO</t>
+  </si>
+  <si>
+    <t>OTU3793</t>
+  </si>
+  <si>
+    <t>LUIZ FERNANDO DE ALMEIDA SANTOS</t>
+  </si>
+  <si>
+    <t>OTN2394</t>
+  </si>
+  <si>
+    <t>MATHEUS DE LUCAS SOUZA E SILVA</t>
+  </si>
+  <si>
+    <t>OTA3F25</t>
+  </si>
+  <si>
+    <t>MICILENE QUEIROZ QUARESMA</t>
+  </si>
+  <si>
+    <t>TVN9J56</t>
+  </si>
+  <si>
+    <t>RICHARD CUNHA DA SILVA</t>
+  </si>
+  <si>
+    <t>OSY3B52</t>
+  </si>
+  <si>
+    <t>RICHARD PATRICK PANTOJA COSTA</t>
+  </si>
+  <si>
+    <t>QEO8E69</t>
+  </si>
+  <si>
+    <t>RINALDO DA ROCHA MENDES</t>
+  </si>
+  <si>
+    <t>QVB4F50</t>
+  </si>
+  <si>
+    <t>ROBERTO ALCIDES TELES LEAL</t>
+  </si>
+  <si>
+    <t>QEI9432</t>
+  </si>
+  <si>
+    <t>ROMULO HENRIQUE ARAUJO GONCALVES</t>
+  </si>
+  <si>
+    <t>NSF4F52</t>
+  </si>
+  <si>
+    <t>RUAN VITOR LIMA SILVA</t>
+  </si>
+  <si>
+    <t>RUU5J86</t>
+  </si>
+  <si>
+    <t>SILAS PATRICK PEREIRA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>JVD7661</t>
+  </si>
+  <si>
+    <t>Rvw6e87</t>
+  </si>
+  <si>
+    <t>WILLIAMS TIAGO FARIAS PINHEIRO</t>
+  </si>
+  <si>
+    <t>QEE7B13</t>
+  </si>
+  <si>
+    <t>YORDANIS GONZALEZ CRUZ</t>
+  </si>
+  <si>
+    <t>RNG3J95</t>
   </si>
 </sst>
 </file>
@@ -3508,7 +3727,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E344" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E383" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="5">
     <tableColumn name="Nome" id="1"/>
     <tableColumn name="Placa" id="2"/>
@@ -9577,6 +9796,669 @@
         <v>103</v>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C345" s="2">
+        <v>2393826.0</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C346" s="2">
+        <v>91931.0</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C347" s="2">
+        <v>149588.0</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C348" s="2">
+        <v>2387582.0</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C349" s="2">
+        <v>387222.0</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C350" s="2">
+        <v>1185016.0</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C351" s="2">
+        <v>118538.0</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C352" s="2">
+        <v>1270939.0</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C353" s="2">
+        <v>1790487.0</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C354" s="2">
+        <v>1804262.0</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C355" s="2">
+        <v>2064106.0</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C356" s="2">
+        <v>3022260.0</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C357" s="2">
+        <v>91595.0</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C358" s="2">
+        <v>421334.0</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C359" s="2">
+        <v>2899065.0</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C360" s="2">
+        <v>817810.0</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C361" s="2">
+        <v>1057435.0</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C362" s="2">
+        <v>357281.0</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C363" s="2">
+        <v>2449602.0</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C364" s="2">
+        <v>724718.0</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C365" s="2">
+        <v>2834712.0</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C366" s="2">
+        <v>1348538.0</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1068245.0</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C368" s="2">
+        <v>146997.0</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C369" s="2">
+        <v>2908016.0</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C370" s="2">
+        <v>1735935.0</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C371" s="2">
+        <v>199477.0</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C372" s="2">
+        <v>406791.0</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C373" s="2">
+        <v>132324.0</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C374" s="2">
+        <v>2412759.0</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C375" s="2">
+        <v>201882.0</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C376" s="2">
+        <v>554581.0</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C377" s="2">
+        <v>92308.0</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C378" s="2">
+        <v>1432400.0</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C379" s="2">
+        <v>1750026.0</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C380" s="2">
+        <v>1165098.0</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C381" s="2">
+        <v>584397.0</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1792651.0</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C383" s="2">
+        <v>264574.0</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
